--- a/resources/union.xlsx
+++ b/resources/union.xlsx
@@ -386,7 +386,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,7 +476,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>BP OIL INTERNATIONAL LIMITED</t>
+          <t>ABN AMRO BANK N.V.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr"/>
@@ -485,20 +485,16 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Associates RN</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>BP Oil International Limited</t>
-        </is>
-      </c>
+          <t>3d party</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr"/>
       <c r="G4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BP Oil International Limited </t>
+          <t xml:space="preserve">ABN AMRO </t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -512,25 +508,73 @@
       <c r="A5" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B5" t="inlineStr"/>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>BP OIL INTERNATIONAL LIMITED</t>
+        </is>
+      </c>
       <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Associates RN</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>BP Oil International Limited</t>
+        </is>
+      </c>
       <c r="G5" t="n">
+        <v>2</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">BP Oil International Limited </t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>CASTLETON COMMODITIES MERCHANTTRADING L.P.</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>3d party</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="n">
         <v>3</v>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Castleton Commodities International LLC </t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t>Castleton Commodities International</t>
         </is>
